--- a/biology/Botanique/Lyonia_ovalifolia/Lyonia_ovalifolia.xlsx
+++ b/biology/Botanique/Lyonia_ovalifolia/Lyonia_ovalifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lyonia ovalifolia est une espèce de plante à fleurs de la famille des Ericaceae.
 C'est un arbre originaire d'Asie (Himalaya, Népal, Chine, Japon, Cambodge, Myanmar, Thaïlande, Vietnam et Malaisie). Il est connu sous le nom de Anyaar en Inde et de Angeri au Népal. .
@@ -512,22 +524,24 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (24 août 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (24 août 2014) :
 variété Lyonia ovalifolia var. elliptica
 variété Lyonia ovalifolia var. foliosa
 variété Lyonia ovalifolia var. hebecarpa
 variété Lyonia ovalifolia var. lanceolata
 variété Lyonia ovalifolia var. rubrovenia
 variété Lyonia ovalifolia var. tomentosa
-Selon The Plant List            (24 août 2014)[3] :
+Selon The Plant List            (24 août 2014) :
 variété Lyonia ovalifolia var. elliptica (Siebold &amp; Zucc.) Hand.-Mazz.
 variété Lyonia ovalifolia var. hebecarpa (Franch. ex F.B. Forbes &amp; Hemsl.) Chun
 variété Lyonia ovalifolia var. lanceolata (Wall.) Hand.-Mazz.
 variété Lyonia ovalifolia var. rubrovenia (Merr.) Judd
 variété Lyonia ovalifolia var. tomentosa (W.P. Fang) C.Y. Wu
-Selon Tropicos                                           (24 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 variété Lyonia ovalifolia var. doyoensis (Hand.-Mazz.) Judd
 variété Lyonia ovalifolia var. elliptica (Siebold &amp; Zucc.) Hand.-Mazz.
 variété Lyonia ovalifolia var. formosana (Komatsu) T. Yamaz.
